--- a/app/Helpers/Excel/template/shouhin_ukebarai.xlsx
+++ b/app/Helpers/Excel/template/shouhin_ukebarai.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aichi\app\Helpers\Excel\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AICHI_KOUSOKU_UNYU\git\dev\app\Helpers\Excel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA6099-5FBA-4125-8DF6-1A6375D93E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="商品別受払一覧" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="打ち合わせメモ３" localSheetId="0">#REF!</definedName>
     <definedName name="打ち合わせメモ３">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,9 +124,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yy/mm/dd\ h:mm"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -421,6 +420,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,64 +479,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2" xfId="2" xr:uid="{51E7FBA0-E935-481A-AC5B-484FE201E389}"/>
-    <cellStyle name="標準 5" xfId="3" xr:uid="{A54C0040-3083-409F-9461-C034CE1831CE}"/>
-    <cellStyle name="標準 5 2" xfId="4" xr:uid="{E67D44BA-4194-4674-8BB3-32C995781FEB}"/>
-    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="1" xr:uid="{41869ED8-3C39-4454-A8FE-8FEB38C897A8}"/>
+    <cellStyle name="標準 3 2" xfId="2"/>
+    <cellStyle name="標準 5" xfId="3"/>
+    <cellStyle name="標準 5 2" xfId="4"/>
+    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,13 +771,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16D9B21-C7F7-49E1-8F0E-383A4BB1E443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CC57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="10.5"/>
   <cols>
@@ -891,23 +892,23 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="61" t="s">
+      <c r="W2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
@@ -974,21 +975,21 @@
       <c r="S3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="1"/>
@@ -1009,16 +1010,16 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
-      <c r="BF3" s="55"/>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55"/>
-      <c r="BJ3" s="55"/>
-      <c r="BK3" s="55"/>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="49"/>
+      <c r="BO3" s="49"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
@@ -1056,21 +1057,21 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
@@ -1202,8 +1203,8 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1527,85 +1528,85 @@
     </row>
     <row r="10" spans="1:81" ht="15" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="51" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="52"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="46"/>
       <c r="S10" s="8"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="41" t="s">
+      <c r="U10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="41" t="s">
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="41" t="s">
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="43"/>
-      <c r="BE10" s="41" t="s">
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="56"/>
+      <c r="BA10" s="56"/>
+      <c r="BB10" s="56"/>
+      <c r="BC10" s="56"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="42"/>
-      <c r="BI10" s="42"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
-      <c r="BL10" s="42"/>
-      <c r="BM10" s="42"/>
-      <c r="BN10" s="42"/>
-      <c r="BO10" s="42"/>
-      <c r="BP10" s="43"/>
+      <c r="BF10" s="56"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="56"/>
+      <c r="BI10" s="56"/>
+      <c r="BJ10" s="56"/>
+      <c r="BK10" s="56"/>
+      <c r="BL10" s="56"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="56"/>
+      <c r="BO10" s="56"/>
+      <c r="BP10" s="57"/>
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
@@ -1621,73 +1622,73 @@
     </row>
     <row r="11" spans="1:81" ht="15" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="6"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="46"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="45"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="45"/>
-      <c r="BK11" s="45"/>
-      <c r="BL11" s="45"/>
-      <c r="BM11" s="45"/>
-      <c r="BN11" s="45"/>
-      <c r="BO11" s="45"/>
-      <c r="BP11" s="46"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="59"/>
+      <c r="AZ11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="59"/>
+      <c r="BD11" s="60"/>
+      <c r="BE11" s="58"/>
+      <c r="BF11" s="59"/>
+      <c r="BG11" s="59"/>
+      <c r="BH11" s="59"/>
+      <c r="BI11" s="59"/>
+      <c r="BJ11" s="59"/>
+      <c r="BK11" s="59"/>
+      <c r="BL11" s="59"/>
+      <c r="BM11" s="59"/>
+      <c r="BN11" s="59"/>
+      <c r="BO11" s="59"/>
+      <c r="BP11" s="60"/>
       <c r="BQ11" s="1"/>
       <c r="BR11" s="1"/>
       <c r="BS11" s="1"/>
@@ -1703,101 +1704,101 @@
     </row>
     <row r="12" spans="1:81" ht="15" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="62" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="63"/>
-      <c r="U12" s="41" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="41" t="s">
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="41" t="s">
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="41" t="s">
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="41" t="s">
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="41" t="s">
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="41" t="s">
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="41" t="s">
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="41" t="s">
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="43"/>
-      <c r="BE12" s="41" t="s">
+      <c r="BB12" s="56"/>
+      <c r="BC12" s="56"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="43"/>
-      <c r="BI12" s="41" t="s">
+      <c r="BF12" s="56"/>
+      <c r="BG12" s="56"/>
+      <c r="BH12" s="57"/>
+      <c r="BI12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="43"/>
-      <c r="BM12" s="41" t="s">
+      <c r="BJ12" s="56"/>
+      <c r="BK12" s="56"/>
+      <c r="BL12" s="57"/>
+      <c r="BM12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="BN12" s="42"/>
-      <c r="BO12" s="42"/>
-      <c r="BP12" s="43"/>
+      <c r="BN12" s="56"/>
+      <c r="BO12" s="56"/>
+      <c r="BP12" s="57"/>
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
@@ -1813,73 +1814,73 @@
     </row>
     <row r="13" spans="1:81" ht="15" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="46"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="45"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="46"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="45"/>
-      <c r="BG13" s="45"/>
-      <c r="BH13" s="46"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="45"/>
-      <c r="BL13" s="46"/>
-      <c r="BM13" s="44"/>
-      <c r="BN13" s="45"/>
-      <c r="BO13" s="45"/>
-      <c r="BP13" s="46"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="60"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="60"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="59"/>
+      <c r="BP13" s="60"/>
       <c r="BQ13" s="1"/>
       <c r="BR13" s="1"/>
       <c r="BS13" s="1"/>
@@ -4986,6 +4987,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AK12:AN13"/>
+    <mergeCell ref="AO12:AR13"/>
+    <mergeCell ref="AS10:BD11"/>
+    <mergeCell ref="BE10:BP11"/>
+    <mergeCell ref="AS12:AV13"/>
+    <mergeCell ref="AW12:AZ13"/>
+    <mergeCell ref="BA12:BD13"/>
+    <mergeCell ref="BI12:BL13"/>
     <mergeCell ref="B10:M11"/>
     <mergeCell ref="N10:R11"/>
     <mergeCell ref="BF3:BM3"/>
@@ -5002,14 +5011,6 @@
     <mergeCell ref="Y12:AB13"/>
     <mergeCell ref="AC12:AF13"/>
     <mergeCell ref="AG12:AJ13"/>
-    <mergeCell ref="AK12:AN13"/>
-    <mergeCell ref="AO12:AR13"/>
-    <mergeCell ref="AS10:BD11"/>
-    <mergeCell ref="BE10:BP11"/>
-    <mergeCell ref="AS12:AV13"/>
-    <mergeCell ref="AW12:AZ13"/>
-    <mergeCell ref="BA12:BD13"/>
-    <mergeCell ref="BI12:BL13"/>
   </mergeCells>
   <pageMargins left="0.39369969378827602" right="0.39369969378827602" top="0.39369969378827602" bottom="0.39369969378827602" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
